--- a/5. FF预研/过程文档/主从站下装数据.xlsx
+++ b/5. FF预研/过程文档/主从站下装数据.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7605" tabRatio="814" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7605" tabRatio="951" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主站下装数据-0228" sheetId="1" r:id="rId1"/>
     <sheet name="从站下装数据-0228" sheetId="2" r:id="rId2"/>
     <sheet name="从站下装数据-0302" sheetId="3" r:id="rId3"/>
     <sheet name="主站下装数据-0304" sheetId="4" r:id="rId4"/>
+    <sheet name="主站VCR下装数据-0312" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="355">
   <si>
     <t>数据结构</t>
   </si>
@@ -1318,6 +1319,272 @@
 2. usLocalIndex
 3. usVcrNumber
 4. usRemoteIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  LINKAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINKAGE信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>块信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCR数据定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态对象信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FF从站配置数据头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_local_addr;</t>
+  </si>
+  <si>
+    <t>fas_dll_configured_remote_addr;</t>
+  </si>
+  <si>
+    <t>UINT16</t>
+  </si>
+  <si>
+    <t>fas_dll_max_cnf_delay_on_conn;</t>
+  </si>
+  <si>
+    <t>fas_dll_max_dlsdu_size;</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>fms_max_scc;</t>
+  </si>
+  <si>
+    <t>fms_max_rcc;</t>
+  </si>
+  <si>
+    <t>VCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCR0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCR1</t>
+  </si>
+  <si>
+    <t>VCR2</t>
+  </si>
+  <si>
+    <t>VCR3</t>
+  </si>
+  <si>
+    <t>fas_ar_type_and_role.fms_bypass;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_ar_type_and_role.ar_type;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_ar_type_and_role.ar_role;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sdap.priority;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sdap.dlpdu_auth;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sdap.dlcep_delivery;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sdap.las_scheduled;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_timeliness_class.subscriber_timeliness;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_timeliness_class.duppdu_supported;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_timeliness_class.publisher_timeliness;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1107</t>
+  </si>
+  <si>
+    <t>0x1107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0A</t>
+  </si>
+  <si>
+    <t>0x0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x80</t>
+  </si>
+  <si>
+    <t>0x80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0xEA60</t>
+  </si>
+  <si>
+    <t>0xEA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x2710</t>
+  </si>
+  <si>
+    <t>0x2710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_resid_act_supp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_pub_timewin_size;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_pub_syn_dlcep;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sub_timewin_size;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sub_syn_dlcep;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fms_vfd_id;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fms_feature_supp[FEAT_SUPP_LEN];</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1307</t>
+  </si>
+  <si>
+    <t>0x1307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x1022</t>
+  </si>
+  <si>
+    <t>0x1023</t>
+  </si>
+  <si>
+    <t>fas_dll_max_cnf_delay_on_data;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(pSlaveObj-&gt;GetAddress() &lt;&lt; 8) | 0x07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0x10 &lt;&lt; 8) | (iVcrNum + 0x20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值：0xEA60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值：0x2710</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值：0x80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值：0xFFFFFFFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CFF文件中的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sdap 未赋值，采用默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未赋值，采用默认0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_ar_type_and_role 固定值：0xA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定值0，需再确定下该值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changed_Params
+功能块参数信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1423,7 +1690,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1531,13 +1798,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1619,6 +1901,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1649,8 +1937,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1660,24 +1957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -1690,6 +1969,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2042,7 +2333,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C2:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -2073,7 +2364,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15" thickBot="1">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -2090,7 +2381,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" ht="15" thickBot="1">
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -2105,7 +2396,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" ht="15" thickBot="1">
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
@@ -2120,7 +2411,7 @@
       </c>
     </row>
     <row r="7" spans="3:7" ht="15" thickBot="1">
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -2137,7 +2428,7 @@
       </c>
     </row>
     <row r="8" spans="3:7" ht="15" thickBot="1">
-      <c r="C8" s="28"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2152,7 +2443,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="15" thickBot="1">
-      <c r="C9" s="28"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
@@ -2167,7 +2458,7 @@
       </c>
     </row>
     <row r="10" spans="3:7" ht="15" thickBot="1">
-      <c r="C10" s="28"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="4" t="s">
         <v>19</v>
       </c>
@@ -2182,7 +2473,7 @@
       </c>
     </row>
     <row r="11" spans="3:7" ht="15" thickBot="1">
-      <c r="C11" s="28"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2197,7 +2488,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" ht="15" thickBot="1">
-      <c r="C12" s="28"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="3" t="s">
         <v>18</v>
       </c>
@@ -2212,7 +2503,7 @@
       </c>
     </row>
     <row r="13" spans="3:7" ht="15" thickBot="1">
-      <c r="C13" s="28"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="4" t="s">
         <v>13</v>
       </c>
@@ -2227,7 +2518,7 @@
       </c>
     </row>
     <row r="14" spans="3:7" ht="15" thickBot="1">
-      <c r="C14" s="28"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="4" t="s">
         <v>11</v>
       </c>
@@ -2242,7 +2533,7 @@
       </c>
     </row>
     <row r="15" spans="3:7" ht="15" thickBot="1">
-      <c r="C15" s="28"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
@@ -2257,16 +2548,16 @@
       </c>
     </row>
     <row r="16" spans="3:7" ht="15" thickBot="1">
-      <c r="C16" s="28"/>
-      <c r="D16" s="30" t="s">
+      <c r="C16" s="30"/>
+      <c r="D16" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" spans="3:7" ht="15" thickBot="1">
-      <c r="C17" s="28"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
@@ -2281,7 +2572,7 @@
       </c>
     </row>
     <row r="18" spans="3:7" ht="15" thickBot="1">
-      <c r="C18" s="28"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="4" t="s">
         <v>41</v>
       </c>
@@ -2296,7 +2587,7 @@
       </c>
     </row>
     <row r="19" spans="3:7" ht="15" thickBot="1">
-      <c r="C19" s="28"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="4" t="s">
         <v>11</v>
       </c>
@@ -2311,7 +2602,7 @@
       </c>
     </row>
     <row r="20" spans="3:7" ht="15" thickBot="1">
-      <c r="C20" s="28"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="4" t="s">
         <v>11</v>
       </c>
@@ -2326,16 +2617,16 @@
       </c>
     </row>
     <row r="21" spans="3:7" ht="15" thickBot="1">
-      <c r="C21" s="28"/>
-      <c r="D21" s="30" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
     </row>
     <row r="22" spans="3:7" ht="15" thickBot="1">
-      <c r="C22" s="28"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
@@ -2350,7 +2641,7 @@
       </c>
     </row>
     <row r="23" spans="3:7" ht="15" thickBot="1">
-      <c r="C23" s="28"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="4" t="s">
         <v>41</v>
       </c>
@@ -2365,7 +2656,7 @@
       </c>
     </row>
     <row r="24" spans="3:7" ht="15" thickBot="1">
-      <c r="C24" s="28"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
@@ -2380,7 +2671,7 @@
       </c>
     </row>
     <row r="25" spans="3:7" ht="15" thickBot="1">
-      <c r="C25" s="28"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="19" t="s">
         <v>41</v>
       </c>
@@ -2395,7 +2686,7 @@
       </c>
     </row>
     <row r="26" spans="3:7" ht="15" thickBot="1">
-      <c r="C26" s="28"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="4" t="s">
         <v>41</v>
       </c>
@@ -2410,7 +2701,7 @@
       </c>
     </row>
     <row r="27" spans="3:7" ht="15" thickBot="1">
-      <c r="C27" s="28"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="4" t="s">
         <v>41</v>
       </c>
@@ -2425,7 +2716,7 @@
       </c>
     </row>
     <row r="28" spans="3:7" ht="15" thickBot="1">
-      <c r="C28" s="28"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="4" t="s">
         <v>47</v>
       </c>
@@ -2440,16 +2731,16 @@
       </c>
     </row>
     <row r="29" spans="3:7" ht="15" thickBot="1">
-      <c r="C29" s="28"/>
-      <c r="D29" s="30" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="32"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="34"/>
     </row>
     <row r="30" spans="3:7" ht="15" thickBot="1">
-      <c r="C30" s="28"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="4" t="s">
         <v>48</v>
       </c>
@@ -2464,7 +2755,7 @@
       </c>
     </row>
     <row r="31" spans="3:7" ht="15" thickBot="1">
-      <c r="C31" s="28"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="4" t="s">
         <v>53</v>
       </c>
@@ -2479,7 +2770,7 @@
       </c>
     </row>
     <row r="32" spans="3:7" ht="51.75" thickBot="1">
-      <c r="C32" s="28"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="4" t="s">
         <v>56</v>
       </c>
@@ -2494,7 +2785,7 @@
       </c>
     </row>
     <row r="33" spans="3:7" ht="15" thickBot="1">
-      <c r="C33" s="28"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="4" t="s">
         <v>53</v>
       </c>
@@ -2509,7 +2800,7 @@
       </c>
     </row>
     <row r="34" spans="3:7" ht="15" thickBot="1">
-      <c r="C34" s="28"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="4" t="s">
         <v>56</v>
       </c>
@@ -2524,7 +2815,7 @@
       </c>
     </row>
     <row r="35" spans="3:7" ht="15" thickBot="1">
-      <c r="C35" s="28"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="4" t="s">
         <v>56</v>
       </c>
@@ -2539,7 +2830,7 @@
       </c>
     </row>
     <row r="36" spans="3:7" ht="15" thickBot="1">
-      <c r="C36" s="28"/>
+      <c r="C36" s="30"/>
       <c r="D36" s="4" t="s">
         <v>61</v>
       </c>
@@ -2554,7 +2845,7 @@
       </c>
     </row>
     <row r="37" spans="3:7" ht="15" thickBot="1">
-      <c r="C37" s="28"/>
+      <c r="C37" s="30"/>
       <c r="D37" s="4" t="s">
         <v>61</v>
       </c>
@@ -2569,7 +2860,7 @@
       </c>
     </row>
     <row r="38" spans="3:7" ht="15" thickBot="1">
-      <c r="C38" s="28"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="4" t="s">
         <v>61</v>
       </c>
@@ -2584,7 +2875,7 @@
       </c>
     </row>
     <row r="39" spans="3:7" ht="15" thickBot="1">
-      <c r="C39" s="29"/>
+      <c r="C39" s="31"/>
       <c r="D39" s="4" t="s">
         <v>61</v>
       </c>
@@ -2617,7 +2908,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="B76" workbookViewId="0">
+    <sheetView topLeftCell="B55" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:G103"/>
     </sheetView>
   </sheetViews>
@@ -2647,7 +2938,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15" thickBot="1">
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="38" t="s">
         <v>113</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -2664,7 +2955,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" ht="15" thickBot="1">
-      <c r="C5" s="36"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
@@ -2679,7 +2970,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" ht="15" thickBot="1">
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
@@ -2694,18 +2985,18 @@
       </c>
     </row>
     <row r="7" spans="3:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="3:7" ht="15" thickBot="1">
-      <c r="C8" s="34"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="12" t="s">
         <v>278</v>
       </c>
@@ -2720,7 +3011,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="15" thickBot="1">
-      <c r="C9" s="34"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="12" t="s">
         <v>105</v>
       </c>
@@ -2733,18 +3024,18 @@
       <c r="G9" s="12"/>
     </row>
     <row r="10" spans="3:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="3:7" ht="15" thickBot="1">
-      <c r="C11" s="34"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="12" t="s">
         <v>99</v>
       </c>
@@ -2757,7 +3048,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" ht="15" thickBot="1">
-      <c r="C12" s="34"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="12" t="s">
         <v>101</v>
       </c>
@@ -2768,18 +3059,18 @@
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="3:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="34" t="s">
+      <c r="D13" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
     </row>
     <row r="14" spans="3:7" ht="15" thickBot="1">
-      <c r="C14" s="34"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="12" t="s">
         <v>93</v>
       </c>
@@ -2790,7 +3081,7 @@
       <c r="G14" s="12"/>
     </row>
     <row r="15" spans="3:7" ht="39" thickBot="1">
-      <c r="C15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="12" t="s">
         <v>95</v>
       </c>
@@ -2803,18 +3094,18 @@
       </c>
     </row>
     <row r="16" spans="3:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="3:7" ht="15" thickBot="1">
-      <c r="C17" s="34"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="12" t="s">
         <v>74</v>
       </c>
@@ -2825,7 +3116,7 @@
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="3:7" ht="39" thickBot="1">
-      <c r="C18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="12" t="s">
         <v>77</v>
       </c>
@@ -2838,18 +3129,18 @@
       </c>
     </row>
     <row r="19" spans="3:7" ht="15" thickBot="1">
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="34" t="s">
+      <c r="D19" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="3:7" ht="15" thickBot="1">
-      <c r="C20" s="34"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="12" t="s">
         <v>74</v>
       </c>
@@ -2860,7 +3151,7 @@
       <c r="G20" s="12"/>
     </row>
     <row r="21" spans="3:7" ht="39" thickBot="1">
-      <c r="C21" s="34"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="12" t="s">
         <v>77</v>
       </c>
@@ -2873,18 +3164,18 @@
       </c>
     </row>
     <row r="22" spans="3:7" ht="14.25" customHeight="1" thickBot="1">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="3:7" ht="15" thickBot="1">
-      <c r="C23" s="34"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="12" t="s">
         <v>89</v>
       </c>
@@ -2895,7 +3186,7 @@
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="3:7" ht="39" thickBot="1">
-      <c r="C24" s="34"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="12" t="s">
         <v>90</v>
       </c>
@@ -2908,18 +3199,18 @@
       </c>
     </row>
     <row r="25" spans="3:7" ht="15" thickBot="1">
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="36" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="3:7" ht="25.5" customHeight="1" thickBot="1">
-      <c r="C26" s="34"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="12" t="s">
         <v>74</v>
       </c>
@@ -2930,7 +3221,7 @@
       <c r="G26" s="12"/>
     </row>
     <row r="27" spans="3:7" ht="51.75" customHeight="1" thickBot="1">
-      <c r="C27" s="34"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="12" t="s">
         <v>60</v>
       </c>
@@ -2943,18 +3234,18 @@
       </c>
     </row>
     <row r="28" spans="3:7" ht="15" thickBot="1">
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="36" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="34" t="s">
+      <c r="D28" s="36" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="3:7" ht="15" thickBot="1">
-      <c r="C29" s="34"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="12" t="s">
         <v>74</v>
       </c>
@@ -2965,7 +3256,7 @@
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="3:7" ht="15" thickBot="1">
-      <c r="C30" s="34"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="12" t="s">
         <v>60</v>
       </c>
@@ -2978,18 +3269,18 @@
       </c>
     </row>
     <row r="31" spans="3:7" ht="15" thickBot="1">
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="34" t="s">
+      <c r="D31" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
     <row r="32" spans="3:7" ht="15" thickBot="1">
-      <c r="C32" s="34"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="12" t="s">
         <v>74</v>
       </c>
@@ -3000,7 +3291,7 @@
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="3:7" ht="39" thickBot="1">
-      <c r="C33" s="34"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="12" t="s">
         <v>77</v>
       </c>
@@ -3013,18 +3304,18 @@
       </c>
     </row>
     <row r="34" spans="3:7" ht="15" thickBot="1">
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="36" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="36" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" spans="3:7" ht="15" thickBot="1">
-      <c r="C35" s="34"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="12" t="s">
         <v>74</v>
       </c>
@@ -3035,7 +3326,7 @@
       <c r="G35" s="12"/>
     </row>
     <row r="36" spans="3:7" ht="26.25" thickBot="1">
-      <c r="C36" s="34"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="12" t="s">
         <v>137</v>
       </c>
@@ -3048,18 +3339,18 @@
       </c>
     </row>
     <row r="37" spans="3:7" ht="15" thickBot="1">
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="3:7" ht="15" thickBot="1">
-      <c r="C38" s="34"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="12" t="s">
         <v>74</v>
       </c>
@@ -3070,7 +3361,7 @@
       <c r="G38" s="12"/>
     </row>
     <row r="39" spans="3:7" ht="39" thickBot="1">
-      <c r="C39" s="34"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="12" t="s">
         <v>75</v>
       </c>
@@ -3083,18 +3374,18 @@
       </c>
     </row>
     <row r="40" spans="3:7" ht="15" thickBot="1">
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="34" t="s">
+      <c r="D40" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
     </row>
     <row r="41" spans="3:7" ht="15" thickBot="1">
-      <c r="C41" s="34"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="12" t="s">
         <v>74</v>
       </c>
@@ -3105,7 +3396,7 @@
       <c r="G41" s="12"/>
     </row>
     <row r="42" spans="3:7" ht="15" thickBot="1">
-      <c r="C42" s="34"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="12" t="s">
         <v>60</v>
       </c>
@@ -3118,18 +3409,18 @@
       </c>
     </row>
     <row r="43" spans="3:7" ht="15" thickBot="1">
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="34" t="s">
+      <c r="D43" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
     </row>
     <row r="44" spans="3:7" ht="15" thickBot="1">
-      <c r="C44" s="34"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="12" t="s">
         <v>74</v>
       </c>
@@ -3140,7 +3431,7 @@
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="3:7" ht="15" thickBot="1">
-      <c r="C45" s="34"/>
+      <c r="C45" s="36"/>
       <c r="D45" s="12" t="s">
         <v>147</v>
       </c>
@@ -3151,18 +3442,18 @@
       <c r="G45" s="12"/>
     </row>
     <row r="46" spans="3:7" ht="15" thickBot="1">
-      <c r="C46" s="43" t="s">
+      <c r="C46" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D46" s="43" t="s">
+      <c r="D46" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="3:7" ht="15" thickBot="1">
-      <c r="C47" s="43"/>
+      <c r="C47" s="39"/>
       <c r="D47" s="18" t="s">
         <v>152</v>
       </c>
@@ -3173,7 +3464,7 @@
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="3:7" ht="15" thickBot="1">
-      <c r="C48" s="43"/>
+      <c r="C48" s="39"/>
       <c r="D48" s="18" t="s">
         <v>147</v>
       </c>
@@ -3184,7 +3475,7 @@
       <c r="G48" s="18"/>
     </row>
     <row r="49" spans="3:7" ht="15" thickBot="1">
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="38" t="s">
         <v>279</v>
       </c>
       <c r="D49" s="7" t="s">
@@ -3197,7 +3488,7 @@
       <c r="G49" s="7"/>
     </row>
     <row r="50" spans="3:7" ht="15" thickBot="1">
-      <c r="C50" s="36"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="7" t="s">
         <v>156</v>
       </c>
@@ -3208,7 +3499,7 @@
       <c r="G50" s="7"/>
     </row>
     <row r="51" spans="3:7" ht="15" thickBot="1">
-      <c r="C51" s="36"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="7" t="s">
         <v>158</v>
       </c>
@@ -3220,12 +3511,12 @@
     </row>
     <row r="52" spans="3:7" ht="15" thickBot="1">
       <c r="C52" s="41"/>
-      <c r="D52" s="36" t="s">
+      <c r="D52" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
     </row>
     <row r="53" spans="3:7" ht="51.75" thickBot="1">
       <c r="C53" s="41"/>
@@ -3257,12 +3548,12 @@
     </row>
     <row r="55" spans="3:7" ht="15" thickBot="1">
       <c r="C55" s="41"/>
-      <c r="D55" s="36" t="s">
+      <c r="D55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
     </row>
     <row r="56" spans="3:7" ht="114.75" thickBot="1">
       <c r="C56" s="41"/>
@@ -3296,12 +3587,12 @@
     </row>
     <row r="58" spans="3:7" ht="15" thickBot="1">
       <c r="C58" s="41"/>
-      <c r="D58" s="36" t="s">
+      <c r="D58" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
     </row>
     <row r="59" spans="3:7" ht="15" thickBot="1">
       <c r="C59" s="41"/>
@@ -3317,7 +3608,7 @@
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="3:7" ht="15" thickBot="1">
-      <c r="C60" s="38" t="s">
+      <c r="C60" s="43" t="s">
         <v>281</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -3334,16 +3625,16 @@
       </c>
     </row>
     <row r="61" spans="3:7" ht="15" thickBot="1">
-      <c r="C61" s="39"/>
-      <c r="D61" s="36" t="s">
+      <c r="C61" s="44"/>
+      <c r="D61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
     </row>
     <row r="62" spans="3:7" ht="15" thickBot="1">
-      <c r="C62" s="39"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="8" t="s">
         <v>181</v>
       </c>
@@ -3358,7 +3649,7 @@
       </c>
     </row>
     <row r="63" spans="3:7" ht="15" thickBot="1">
-      <c r="C63" s="39"/>
+      <c r="C63" s="44"/>
       <c r="D63" s="8" t="s">
         <v>181</v>
       </c>
@@ -3373,16 +3664,16 @@
       </c>
     </row>
     <row r="64" spans="3:7" ht="15" thickBot="1">
-      <c r="C64" s="39"/>
-      <c r="D64" s="36" t="s">
+      <c r="C64" s="44"/>
+      <c r="D64" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
     </row>
     <row r="65" spans="3:7" ht="15" thickBot="1">
-      <c r="C65" s="39"/>
+      <c r="C65" s="44"/>
       <c r="D65" s="8" t="s">
         <v>188</v>
       </c>
@@ -3397,7 +3688,7 @@
       </c>
     </row>
     <row r="66" spans="3:7" ht="15" thickBot="1">
-      <c r="C66" s="39"/>
+      <c r="C66" s="44"/>
       <c r="D66" s="8" t="s">
         <v>192</v>
       </c>
@@ -3412,7 +3703,7 @@
       </c>
     </row>
     <row r="67" spans="3:7" ht="15" thickBot="1">
-      <c r="C67" s="40"/>
+      <c r="C67" s="45"/>
       <c r="D67" s="8" t="s">
         <v>274</v>
       </c>
@@ -3503,18 +3794,18 @@
       <c r="G73" s="9"/>
     </row>
     <row r="74" spans="3:7" ht="15" thickBot="1">
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="D74" s="34" t="s">
+      <c r="D74" s="36" t="s">
         <v>214</v>
       </c>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
     </row>
     <row r="75" spans="3:7" ht="15" thickBot="1">
-      <c r="C75" s="33"/>
+      <c r="C75" s="35"/>
       <c r="D75" s="13" t="s">
         <v>215</v>
       </c>
@@ -3525,7 +3816,7 @@
       <c r="G75" s="14"/>
     </row>
     <row r="76" spans="3:7" ht="15" thickBot="1">
-      <c r="C76" s="33"/>
+      <c r="C76" s="35"/>
       <c r="D76" s="13" t="s">
         <v>216</v>
       </c>
@@ -3536,18 +3827,18 @@
       <c r="G76" s="14"/>
     </row>
     <row r="77" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="D77" s="34" t="s">
+      <c r="D77" s="36" t="s">
         <v>220</v>
       </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
     </row>
     <row r="78" spans="3:7" ht="15" thickBot="1">
-      <c r="C78" s="33"/>
+      <c r="C78" s="35"/>
       <c r="D78" s="13" t="s">
         <v>215</v>
       </c>
@@ -3558,7 +3849,7 @@
       <c r="G78" s="14"/>
     </row>
     <row r="79" spans="3:7" ht="15" thickBot="1">
-      <c r="C79" s="33"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="13" t="s">
         <v>223</v>
       </c>
@@ -3569,18 +3860,18 @@
       <c r="G79" s="14"/>
     </row>
     <row r="80" spans="3:7" ht="15" thickBot="1">
-      <c r="C80" s="33" t="s">
+      <c r="C80" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D80" s="34" t="s">
+      <c r="D80" s="36" t="s">
         <v>225</v>
       </c>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
     </row>
     <row r="81" spans="1:7" ht="15" thickBot="1">
-      <c r="C81" s="33"/>
+      <c r="C81" s="35"/>
       <c r="D81" s="13" t="s">
         <v>227</v>
       </c>
@@ -3591,7 +3882,7 @@
       <c r="G81" s="14"/>
     </row>
     <row r="82" spans="1:7" ht="15" thickBot="1">
-      <c r="C82" s="33"/>
+      <c r="C82" s="35"/>
       <c r="D82" s="13" t="s">
         <v>228</v>
       </c>
@@ -3604,18 +3895,18 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" thickBot="1">
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D83" s="34" t="s">
+      <c r="D83" s="36" t="s">
         <v>233</v>
       </c>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
     </row>
     <row r="84" spans="1:7" ht="15" thickBot="1">
-      <c r="C84" s="33"/>
+      <c r="C84" s="35"/>
       <c r="D84" s="13" t="s">
         <v>215</v>
       </c>
@@ -3626,7 +3917,7 @@
       <c r="G84" s="14"/>
     </row>
     <row r="85" spans="1:7" ht="114.75" thickBot="1">
-      <c r="C85" s="33"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="13" t="s">
         <v>228</v>
       </c>
@@ -3639,18 +3930,18 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C86" s="33" t="s">
+      <c r="C86" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="D86" s="34" t="s">
+      <c r="D86" s="36" t="s">
         <v>237</v>
       </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
     </row>
     <row r="87" spans="1:7" ht="15" thickBot="1">
-      <c r="C87" s="33"/>
+      <c r="C87" s="35"/>
       <c r="D87" s="13" t="s">
         <v>238</v>
       </c>
@@ -3661,7 +3952,7 @@
       <c r="G87" s="14"/>
     </row>
     <row r="88" spans="1:7" ht="15" thickBot="1">
-      <c r="C88" s="33"/>
+      <c r="C88" s="35"/>
       <c r="D88" s="13" t="s">
         <v>240</v>
       </c>
@@ -3674,18 +3965,18 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C89" s="33" t="s">
+      <c r="C89" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="D89" s="34" t="s">
+      <c r="D89" s="36" t="s">
         <v>243</v>
       </c>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
     </row>
     <row r="90" spans="1:7" ht="15" thickBot="1">
-      <c r="C90" s="33"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="13" t="s">
         <v>244</v>
       </c>
@@ -3696,7 +3987,7 @@
       <c r="G90" s="14"/>
     </row>
     <row r="91" spans="1:7" ht="15" thickBot="1">
-      <c r="C91" s="33"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="13" t="s">
         <v>246</v>
       </c>
@@ -3709,18 +4000,18 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C92" s="33" t="s">
+      <c r="C92" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="D92" s="34" t="s">
+      <c r="D92" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
+      <c r="E92" s="37"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
     </row>
     <row r="93" spans="1:7" ht="15" thickBot="1">
-      <c r="C93" s="33"/>
+      <c r="C93" s="35"/>
       <c r="D93" s="13" t="s">
         <v>215</v>
       </c>
@@ -3734,7 +4025,7 @@
       <c r="A94" t="s">
         <v>250</v>
       </c>
-      <c r="C94" s="33"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="13" t="s">
         <v>252</v>
       </c>
@@ -3747,18 +4038,18 @@
       </c>
     </row>
     <row r="95" spans="1:7" ht="15" thickBot="1">
-      <c r="C95" s="33" t="s">
+      <c r="C95" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D95" s="34" t="s">
+      <c r="D95" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
     </row>
     <row r="96" spans="1:7" ht="15" thickBot="1">
-      <c r="C96" s="33"/>
+      <c r="C96" s="35"/>
       <c r="D96" s="13" t="s">
         <v>257</v>
       </c>
@@ -3769,7 +4060,7 @@
       <c r="G96" s="14"/>
     </row>
     <row r="97" spans="3:7" ht="15" thickBot="1">
-      <c r="C97" s="33"/>
+      <c r="C97" s="35"/>
       <c r="D97" s="13" t="s">
         <v>258</v>
       </c>
@@ -3782,18 +4073,18 @@
       </c>
     </row>
     <row r="98" spans="3:7" ht="15" thickBot="1">
-      <c r="C98" s="33" t="s">
+      <c r="C98" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="D98" s="34" t="s">
+      <c r="D98" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
+      <c r="E98" s="37"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
     </row>
     <row r="99" spans="3:7" ht="15" thickBot="1">
-      <c r="C99" s="33"/>
+      <c r="C99" s="35"/>
       <c r="D99" s="13" t="s">
         <v>215</v>
       </c>
@@ -3804,7 +4095,7 @@
       <c r="G99" s="14"/>
     </row>
     <row r="100" spans="3:7" ht="15" thickBot="1">
-      <c r="C100" s="33"/>
+      <c r="C100" s="35"/>
       <c r="D100" s="13" t="s">
         <v>263</v>
       </c>
@@ -3817,18 +4108,18 @@
       </c>
     </row>
     <row r="101" spans="3:7" ht="15" thickBot="1">
-      <c r="C101" s="33" t="s">
+      <c r="C101" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="D101" s="34" t="s">
+      <c r="D101" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
+      <c r="E101" s="37"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
     </row>
     <row r="102" spans="3:7" ht="15" thickBot="1">
-      <c r="C102" s="33"/>
+      <c r="C102" s="35"/>
       <c r="D102" s="13" t="s">
         <v>268</v>
       </c>
@@ -3839,7 +4130,7 @@
       <c r="G102" s="14"/>
     </row>
     <row r="103" spans="3:7" ht="15" thickBot="1">
-      <c r="C103" s="33"/>
+      <c r="C103" s="35"/>
       <c r="D103" s="13" t="s">
         <v>270</v>
       </c>
@@ -3853,6 +4144,56 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:G83"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="D74:G74"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D77:G77"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:G80"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="C49:C53"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:G10"/>
     <mergeCell ref="C98:C100"/>
     <mergeCell ref="D98:G98"/>
     <mergeCell ref="D101:G101"/>
@@ -3863,56 +4204,6 @@
     <mergeCell ref="C92:C94"/>
     <mergeCell ref="C95:C97"/>
     <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:G16"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="D31:G31"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="C49:C53"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="C60:C67"/>
-    <mergeCell ref="D69:F69"/>
-    <mergeCell ref="C68:C73"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="C86:C88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3925,7 +4216,7 @@
   <dimension ref="C2:G34"/>
   <sheetViews>
     <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G19"/>
+      <selection activeCell="C29" sqref="C29:C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3954,8 +4245,8 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15" thickBot="1">
-      <c r="C4" s="36" t="s">
-        <v>113</v>
+      <c r="C4" s="38" t="s">
+        <v>292</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>4</v>
@@ -3971,7 +4262,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" ht="15" thickBot="1">
-      <c r="C5" s="36"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
@@ -3986,7 +4277,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" ht="15" thickBot="1">
-      <c r="C6" s="36"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
@@ -4001,40 +4292,44 @@
       </c>
     </row>
     <row r="7" spans="3:7" ht="15" thickBot="1">
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="3:7" ht="15" thickBot="1">
-      <c r="C8" s="43"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="18" t="s">
+        <v>291</v>
+      </c>
       <c r="G8" s="18"/>
     </row>
     <row r="9" spans="3:7" ht="15" thickBot="1">
-      <c r="C9" s="43"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="18" t="s">
         <v>147</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="18" t="s">
+        <v>290</v>
+      </c>
       <c r="G9" s="18"/>
     </row>
     <row r="10" spans="3:7" ht="15" thickBot="1">
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="38" t="s">
         <v>279</v>
       </c>
       <c r="D10" s="16" t="s">
@@ -4043,39 +4338,45 @@
       <c r="E10" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>289</v>
+      </c>
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="3:7" ht="15" thickBot="1">
-      <c r="C11" s="36"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="16" t="s">
         <v>156</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>288</v>
+      </c>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="3:7" ht="15" thickBot="1">
-      <c r="C12" s="36"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="16" t="s">
         <v>158</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>287</v>
+      </c>
       <c r="G12" s="16"/>
     </row>
     <row r="13" spans="3:7" ht="15" thickBot="1">
       <c r="C13" s="41"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="3:7" ht="51.75" thickBot="1">
       <c r="C14" s="41"/>
@@ -4085,7 +4386,9 @@
       <c r="E14" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="16" t="s">
+        <v>286</v>
+      </c>
       <c r="G14" s="16" t="s">
         <v>163</v>
       </c>
@@ -4107,22 +4410,24 @@
     </row>
     <row r="16" spans="3:7" ht="15" thickBot="1">
       <c r="C16" s="41"/>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="3:7" ht="114.75" thickBot="1">
       <c r="C17" s="41"/>
       <c r="D17" s="8" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="E17" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>285</v>
+      </c>
       <c r="G17" s="17" t="s">
         <v>283</v>
       </c>
@@ -4146,12 +4451,12 @@
     </row>
     <row r="19" spans="3:7" ht="15" thickBot="1">
       <c r="C19" s="41"/>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="3:7" ht="15" thickBot="1">
       <c r="C20" s="41"/>
@@ -4167,7 +4472,7 @@
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="3:7" ht="15" thickBot="1">
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="43" t="s">
         <v>281</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -4184,16 +4489,16 @@
       </c>
     </row>
     <row r="22" spans="3:7" ht="15" thickBot="1">
-      <c r="C22" s="39"/>
-      <c r="D22" s="36" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="3:7" ht="15" thickBot="1">
-      <c r="C23" s="39"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="8" t="s">
         <v>181</v>
       </c>
@@ -4208,7 +4513,7 @@
       </c>
     </row>
     <row r="24" spans="3:7" ht="15" thickBot="1">
-      <c r="C24" s="39"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="8" t="s">
         <v>181</v>
       </c>
@@ -4223,16 +4528,16 @@
       </c>
     </row>
     <row r="25" spans="3:7" ht="15" thickBot="1">
-      <c r="C25" s="39"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="3:7" ht="15" thickBot="1">
-      <c r="C26" s="39"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="8" t="s">
         <v>188</v>
       </c>
@@ -4247,7 +4552,7 @@
       </c>
     </row>
     <row r="27" spans="3:7" ht="15" thickBot="1">
-      <c r="C27" s="39"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="8" t="s">
         <v>192</v>
       </c>
@@ -4262,7 +4567,7 @@
       </c>
     </row>
     <row r="28" spans="3:7" ht="15" thickBot="1">
-      <c r="C28" s="40"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="8" t="s">
         <v>274</v>
       </c>
@@ -4278,7 +4583,7 @@
     </row>
     <row r="29" spans="3:7" ht="15" thickBot="1">
       <c r="C29" s="42" t="s">
-        <v>282</v>
+        <v>354</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>19</v>
@@ -4354,11 +4659,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="C10:C14"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="C4:C6"/>
     <mergeCell ref="C29:C34"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="C15:C17"/>
@@ -4368,6 +4668,11 @@
     <mergeCell ref="C21:C28"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D25:G25"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="C4:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4379,8 +4684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -4410,7 +4715,7 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="15" thickBot="1">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4427,7 +4732,7 @@
       </c>
     </row>
     <row r="5" spans="3:7" ht="15" thickBot="1">
-      <c r="C5" s="28"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
@@ -4442,7 +4747,7 @@
       </c>
     </row>
     <row r="6" spans="3:7" ht="15" thickBot="1">
-      <c r="C6" s="29"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="4" t="s">
         <v>4</v>
       </c>
@@ -4457,18 +4762,18 @@
       </c>
     </row>
     <row r="7" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="3:7" ht="15" thickBot="1">
-      <c r="C8" s="45"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="23" t="s">
         <v>93</v>
       </c>
@@ -4483,7 +4788,7 @@
       </c>
     </row>
     <row r="9" spans="3:7" ht="15" thickBot="1">
-      <c r="C9" s="45"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="23" t="s">
         <v>101</v>
       </c>
@@ -4496,18 +4801,18 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="3:7" ht="15" thickBot="1">
-      <c r="C11" s="45"/>
+      <c r="C11" s="50"/>
       <c r="D11" s="23" t="s">
         <v>93</v>
       </c>
@@ -4520,7 +4825,7 @@
       </c>
     </row>
     <row r="12" spans="3:7" ht="15" thickBot="1">
-      <c r="C12" s="45"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="23" t="s">
         <v>101</v>
       </c>
@@ -4531,18 +4836,18 @@
       <c r="G12" s="23"/>
     </row>
     <row r="13" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
     </row>
     <row r="14" spans="3:7" ht="15" thickBot="1">
-      <c r="C14" s="45"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="23" t="s">
         <v>93</v>
       </c>
@@ -4553,7 +4858,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="3:7" ht="39" thickBot="1">
-      <c r="C15" s="45"/>
+      <c r="C15" s="50"/>
       <c r="D15" s="23" t="s">
         <v>90</v>
       </c>
@@ -4566,18 +4871,18 @@
       </c>
     </row>
     <row r="16" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" spans="3:7" ht="15" thickBot="1">
-      <c r="C17" s="45"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="23" t="s">
         <v>74</v>
       </c>
@@ -4588,7 +4893,7 @@
       <c r="G17" s="23"/>
     </row>
     <row r="18" spans="3:7" ht="39" thickBot="1">
-      <c r="C18" s="45"/>
+      <c r="C18" s="50"/>
       <c r="D18" s="23" t="s">
         <v>77</v>
       </c>
@@ -4601,18 +4906,18 @@
       </c>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="45" t="s">
+      <c r="D19" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="3:7" ht="15" thickBot="1">
-      <c r="C20" s="45"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="23" t="s">
         <v>74</v>
       </c>
@@ -4623,7 +4928,7 @@
       <c r="G20" s="23"/>
     </row>
     <row r="21" spans="3:7" ht="39" thickBot="1">
-      <c r="C21" s="45"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="23" t="s">
         <v>77</v>
       </c>
@@ -4636,18 +4941,18 @@
       </c>
     </row>
     <row r="22" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="46"/>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
     </row>
     <row r="23" spans="3:7" ht="15" thickBot="1">
-      <c r="C23" s="45"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="23" t="s">
         <v>89</v>
       </c>
@@ -4658,7 +4963,7 @@
       <c r="G23" s="23"/>
     </row>
     <row r="24" spans="3:7" ht="39" thickBot="1">
-      <c r="C24" s="45"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="23" t="s">
         <v>90</v>
       </c>
@@ -4671,18 +4976,18 @@
       </c>
     </row>
     <row r="25" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="45" t="s">
+      <c r="D25" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
     </row>
     <row r="26" spans="3:7" ht="15" thickBot="1">
-      <c r="C26" s="45"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="23" t="s">
         <v>74</v>
       </c>
@@ -4693,7 +4998,7 @@
       <c r="G26" s="23"/>
     </row>
     <row r="27" spans="3:7" ht="39" thickBot="1">
-      <c r="C27" s="45"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="23" t="s">
         <v>60</v>
       </c>
@@ -4706,18 +5011,18 @@
       </c>
     </row>
     <row r="28" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="D28" s="45" t="s">
+      <c r="D28" s="50" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
     </row>
     <row r="29" spans="3:7" ht="15" thickBot="1">
-      <c r="C29" s="45"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="23" t="s">
         <v>74</v>
       </c>
@@ -4728,7 +5033,7 @@
       <c r="G29" s="23"/>
     </row>
     <row r="30" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C30" s="45"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="23" t="s">
         <v>60</v>
       </c>
@@ -4741,18 +5046,18 @@
       </c>
     </row>
     <row r="31" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="D31" s="45" t="s">
+      <c r="D31" s="50" t="s">
         <v>128</v>
       </c>
-      <c r="E31" s="46"/>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
     </row>
     <row r="32" spans="3:7" ht="15" thickBot="1">
-      <c r="C32" s="45"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="23" t="s">
         <v>74</v>
       </c>
@@ -4763,7 +5068,7 @@
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="3:7" ht="39" thickBot="1">
-      <c r="C33" s="45"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="23" t="s">
         <v>77</v>
       </c>
@@ -4776,18 +5081,18 @@
       </c>
     </row>
     <row r="34" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="46"/>
-      <c r="G34" s="46"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
     </row>
     <row r="35" spans="3:7" ht="15" thickBot="1">
-      <c r="C35" s="45"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="23" t="s">
         <v>74</v>
       </c>
@@ -4798,7 +5103,7 @@
       <c r="G35" s="23"/>
     </row>
     <row r="36" spans="3:7" ht="26.25" thickBot="1">
-      <c r="C36" s="45"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="23" t="s">
         <v>137</v>
       </c>
@@ -4811,18 +5116,18 @@
       </c>
     </row>
     <row r="37" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
     </row>
     <row r="38" spans="3:7" ht="15" thickBot="1">
-      <c r="C38" s="45"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="23" t="s">
         <v>74</v>
       </c>
@@ -4833,7 +5138,7 @@
       <c r="G38" s="23"/>
     </row>
     <row r="39" spans="3:7" ht="39" thickBot="1">
-      <c r="C39" s="45"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="23" t="s">
         <v>75</v>
       </c>
@@ -4846,18 +5151,18 @@
       </c>
     </row>
     <row r="40" spans="3:7" ht="15" customHeight="1" thickBot="1">
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
     </row>
     <row r="41" spans="3:7" ht="15" thickBot="1">
-      <c r="C41" s="45"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="23" t="s">
         <v>74</v>
       </c>
@@ -4868,7 +5173,7 @@
       <c r="G41" s="23"/>
     </row>
     <row r="42" spans="3:7" ht="15" thickBot="1">
-      <c r="C42" s="45"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="23" t="s">
         <v>60</v>
       </c>
@@ -4881,18 +5186,18 @@
       </c>
     </row>
     <row r="43" spans="3:7" ht="15" thickBot="1">
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
     </row>
     <row r="44" spans="3:7" ht="15" thickBot="1">
-      <c r="C44" s="45"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="23" t="s">
         <v>74</v>
       </c>
@@ -4903,7 +5208,7 @@
       <c r="G44" s="23"/>
     </row>
     <row r="45" spans="3:7" ht="15" thickBot="1">
-      <c r="C45" s="45"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="23" t="s">
         <v>147</v>
       </c>
@@ -4914,18 +5219,18 @@
       <c r="G45" s="23"/>
     </row>
     <row r="46" spans="3:7" ht="15" thickBot="1">
-      <c r="C46" s="44" t="s">
+      <c r="C46" s="52" t="s">
         <v>213</v>
       </c>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="50" t="s">
         <v>214</v>
       </c>
-      <c r="E46" s="46"/>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
+      <c r="G46" s="51"/>
     </row>
     <row r="47" spans="3:7" ht="15" thickBot="1">
-      <c r="C47" s="44"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="24" t="s">
         <v>215</v>
       </c>
@@ -4936,7 +5241,7 @@
       <c r="G47" s="25"/>
     </row>
     <row r="48" spans="3:7" ht="15" thickBot="1">
-      <c r="C48" s="44"/>
+      <c r="C48" s="52"/>
       <c r="D48" s="24" t="s">
         <v>216</v>
       </c>
@@ -4947,18 +5252,18 @@
       <c r="G48" s="25"/>
     </row>
     <row r="49" spans="3:7" ht="15" thickBot="1">
-      <c r="C49" s="44" t="s">
+      <c r="C49" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="50" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
     </row>
     <row r="50" spans="3:7" ht="15" thickBot="1">
-      <c r="C50" s="44"/>
+      <c r="C50" s="52"/>
       <c r="D50" s="24" t="s">
         <v>215</v>
       </c>
@@ -4969,7 +5274,7 @@
       <c r="G50" s="25"/>
     </row>
     <row r="51" spans="3:7" ht="15" thickBot="1">
-      <c r="C51" s="44"/>
+      <c r="C51" s="52"/>
       <c r="D51" s="24" t="s">
         <v>223</v>
       </c>
@@ -4980,18 +5285,18 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="3:7" ht="15" thickBot="1">
-      <c r="C52" s="44" t="s">
+      <c r="C52" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="50" t="s">
         <v>225</v>
       </c>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
     </row>
     <row r="53" spans="3:7" ht="15" thickBot="1">
-      <c r="C53" s="44"/>
+      <c r="C53" s="52"/>
       <c r="D53" s="24" t="s">
         <v>227</v>
       </c>
@@ -5002,7 +5307,7 @@
       <c r="G53" s="25"/>
     </row>
     <row r="54" spans="3:7" ht="15" thickBot="1">
-      <c r="C54" s="44"/>
+      <c r="C54" s="52"/>
       <c r="D54" s="24" t="s">
         <v>61</v>
       </c>
@@ -5015,18 +5320,18 @@
       </c>
     </row>
     <row r="55" spans="3:7" ht="15" thickBot="1">
-      <c r="C55" s="44" t="s">
+      <c r="C55" s="52" t="s">
         <v>231</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="50" t="s">
         <v>233</v>
       </c>
-      <c r="E55" s="46"/>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
     </row>
     <row r="56" spans="3:7" ht="15" thickBot="1">
-      <c r="C56" s="44"/>
+      <c r="C56" s="52"/>
       <c r="D56" s="24" t="s">
         <v>215</v>
       </c>
@@ -5037,7 +5342,7 @@
       <c r="G56" s="25"/>
     </row>
     <row r="57" spans="3:7" ht="114.75" thickBot="1">
-      <c r="C57" s="44"/>
+      <c r="C57" s="52"/>
       <c r="D57" s="24" t="s">
         <v>61</v>
       </c>
@@ -5050,18 +5355,18 @@
       </c>
     </row>
     <row r="58" spans="3:7" ht="15" thickBot="1">
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="50" t="s">
         <v>237</v>
       </c>
-      <c r="E58" s="46"/>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="51"/>
+      <c r="G58" s="51"/>
     </row>
     <row r="59" spans="3:7" ht="15" thickBot="1">
-      <c r="C59" s="44"/>
+      <c r="C59" s="52"/>
       <c r="D59" s="24" t="s">
         <v>215</v>
       </c>
@@ -5072,7 +5377,7 @@
       <c r="G59" s="25"/>
     </row>
     <row r="60" spans="3:7" ht="15" thickBot="1">
-      <c r="C60" s="44"/>
+      <c r="C60" s="52"/>
       <c r="D60" s="24" t="s">
         <v>61</v>
       </c>
@@ -5085,18 +5390,18 @@
       </c>
     </row>
     <row r="61" spans="3:7" ht="15" thickBot="1">
-      <c r="C61" s="44" t="s">
+      <c r="C61" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="D61" s="45" t="s">
+      <c r="D61" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="E61" s="46"/>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
     </row>
     <row r="62" spans="3:7" ht="15" thickBot="1">
-      <c r="C62" s="44"/>
+      <c r="C62" s="52"/>
       <c r="D62" s="24" t="s">
         <v>215</v>
       </c>
@@ -5107,7 +5412,7 @@
       <c r="G62" s="25"/>
     </row>
     <row r="63" spans="3:7" ht="15" thickBot="1">
-      <c r="C63" s="44"/>
+      <c r="C63" s="52"/>
       <c r="D63" s="24" t="s">
         <v>61</v>
       </c>
@@ -5120,18 +5425,18 @@
       </c>
     </row>
     <row r="64" spans="3:7" ht="15" thickBot="1">
-      <c r="C64" s="44" t="s">
+      <c r="C64" s="52" t="s">
         <v>251</v>
       </c>
-      <c r="D64" s="45" t="s">
+      <c r="D64" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="E64" s="46"/>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="51"/>
+      <c r="G64" s="51"/>
     </row>
     <row r="65" spans="3:7" ht="15" thickBot="1">
-      <c r="C65" s="44"/>
+      <c r="C65" s="52"/>
       <c r="D65" s="24" t="s">
         <v>215</v>
       </c>
@@ -5142,7 +5447,7 @@
       <c r="G65" s="25"/>
     </row>
     <row r="66" spans="3:7" ht="15" thickBot="1">
-      <c r="C66" s="44"/>
+      <c r="C66" s="52"/>
       <c r="D66" s="24" t="s">
         <v>252</v>
       </c>
@@ -5155,18 +5460,18 @@
       </c>
     </row>
     <row r="67" spans="3:7" ht="15" thickBot="1">
-      <c r="C67" s="44" t="s">
+      <c r="C67" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="D67" s="45" t="s">
+      <c r="D67" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="46"/>
-      <c r="F67" s="46"/>
-      <c r="G67" s="46"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
     </row>
     <row r="68" spans="3:7" ht="15" thickBot="1">
-      <c r="C68" s="44"/>
+      <c r="C68" s="52"/>
       <c r="D68" s="24" t="s">
         <v>215</v>
       </c>
@@ -5177,7 +5482,7 @@
       <c r="G68" s="25"/>
     </row>
     <row r="69" spans="3:7" ht="15" thickBot="1">
-      <c r="C69" s="44"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="24" t="s">
         <v>202</v>
       </c>
@@ -5190,18 +5495,18 @@
       </c>
     </row>
     <row r="70" spans="3:7" ht="15" thickBot="1">
-      <c r="C70" s="44" t="s">
+      <c r="C70" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="45" t="s">
+      <c r="D70" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
     </row>
     <row r="71" spans="3:7" ht="15" thickBot="1">
-      <c r="C71" s="44"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="24" t="s">
         <v>215</v>
       </c>
@@ -5212,7 +5517,7 @@
       <c r="G71" s="25"/>
     </row>
     <row r="72" spans="3:7" ht="15" thickBot="1">
-      <c r="C72" s="44"/>
+      <c r="C72" s="52"/>
       <c r="D72" s="24" t="s">
         <v>263</v>
       </c>
@@ -5225,18 +5530,18 @@
       </c>
     </row>
     <row r="73" spans="3:7" ht="15" thickBot="1">
-      <c r="C73" s="44" t="s">
+      <c r="C73" s="52" t="s">
         <v>266</v>
       </c>
-      <c r="D73" s="45" t="s">
+      <c r="D73" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="E73" s="46"/>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
     </row>
     <row r="74" spans="3:7" ht="15" thickBot="1">
-      <c r="C74" s="44"/>
+      <c r="C74" s="52"/>
       <c r="D74" s="24" t="s">
         <v>215</v>
       </c>
@@ -5247,7 +5552,7 @@
       <c r="G74" s="25"/>
     </row>
     <row r="75" spans="3:7" ht="15" thickBot="1">
-      <c r="C75" s="44"/>
+      <c r="C75" s="52"/>
       <c r="D75" s="24" t="s">
         <v>270</v>
       </c>
@@ -5260,7 +5565,7 @@
       </c>
     </row>
     <row r="76" spans="3:7" ht="15" thickBot="1">
-      <c r="C76" s="27" t="s">
+      <c r="C76" s="29" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -5277,7 +5582,7 @@
       </c>
     </row>
     <row r="77" spans="3:7" ht="15" thickBot="1">
-      <c r="C77" s="47"/>
+      <c r="C77" s="46"/>
       <c r="D77" s="3" t="s">
         <v>18</v>
       </c>
@@ -5292,7 +5597,7 @@
       </c>
     </row>
     <row r="78" spans="3:7" ht="15" thickBot="1">
-      <c r="C78" s="47"/>
+      <c r="C78" s="46"/>
       <c r="D78" s="4" t="s">
         <v>19</v>
       </c>
@@ -5307,7 +5612,7 @@
       </c>
     </row>
     <row r="79" spans="3:7" ht="15" thickBot="1">
-      <c r="C79" s="47"/>
+      <c r="C79" s="46"/>
       <c r="D79" s="4" t="s">
         <v>19</v>
       </c>
@@ -5322,7 +5627,7 @@
       </c>
     </row>
     <row r="80" spans="3:7" ht="15" thickBot="1">
-      <c r="C80" s="47"/>
+      <c r="C80" s="46"/>
       <c r="D80" s="3" t="s">
         <v>18</v>
       </c>
@@ -5337,7 +5642,7 @@
       </c>
     </row>
     <row r="81" spans="3:7" ht="15" thickBot="1">
-      <c r="C81" s="47"/>
+      <c r="C81" s="46"/>
       <c r="D81" s="3" t="s">
         <v>18</v>
       </c>
@@ -5352,7 +5657,7 @@
       </c>
     </row>
     <row r="82" spans="3:7" ht="15" thickBot="1">
-      <c r="C82" s="47"/>
+      <c r="C82" s="46"/>
       <c r="D82" s="4" t="s">
         <v>13</v>
       </c>
@@ -5367,7 +5672,7 @@
       </c>
     </row>
     <row r="83" spans="3:7" ht="15" thickBot="1">
-      <c r="C83" s="47"/>
+      <c r="C83" s="46"/>
       <c r="D83" s="4" t="s">
         <v>11</v>
       </c>
@@ -5382,7 +5687,7 @@
       </c>
     </row>
     <row r="84" spans="3:7" ht="15" thickBot="1">
-      <c r="C84" s="47"/>
+      <c r="C84" s="46"/>
       <c r="D84" s="4" t="s">
         <v>35</v>
       </c>
@@ -5397,16 +5702,16 @@
       </c>
     </row>
     <row r="85" spans="3:7" ht="15" thickBot="1">
-      <c r="C85" s="47"/>
-      <c r="D85" s="30" t="s">
+      <c r="C85" s="46"/>
+      <c r="D85" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="E85" s="49"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="50"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="49"/>
     </row>
     <row r="86" spans="3:7" ht="15" thickBot="1">
-      <c r="C86" s="47"/>
+      <c r="C86" s="46"/>
       <c r="D86" s="4" t="s">
         <v>41</v>
       </c>
@@ -5421,7 +5726,7 @@
       </c>
     </row>
     <row r="87" spans="3:7" ht="15" thickBot="1">
-      <c r="C87" s="47"/>
+      <c r="C87" s="46"/>
       <c r="D87" s="4" t="s">
         <v>41</v>
       </c>
@@ -5436,7 +5741,7 @@
       </c>
     </row>
     <row r="88" spans="3:7" ht="15" thickBot="1">
-      <c r="C88" s="47"/>
+      <c r="C88" s="46"/>
       <c r="D88" s="4" t="s">
         <v>11</v>
       </c>
@@ -5451,7 +5756,7 @@
       </c>
     </row>
     <row r="89" spans="3:7" ht="15" thickBot="1">
-      <c r="C89" s="47"/>
+      <c r="C89" s="46"/>
       <c r="D89" s="4" t="s">
         <v>11</v>
       </c>
@@ -5466,16 +5771,16 @@
       </c>
     </row>
     <row r="90" spans="3:7" ht="15" thickBot="1">
-      <c r="C90" s="47"/>
-      <c r="D90" s="30" t="s">
+      <c r="C90" s="46"/>
+      <c r="D90" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E90" s="49"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="50"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="49"/>
     </row>
     <row r="91" spans="3:7" ht="15" thickBot="1">
-      <c r="C91" s="47"/>
+      <c r="C91" s="46"/>
       <c r="D91" s="4" t="s">
         <v>41</v>
       </c>
@@ -5490,7 +5795,7 @@
       </c>
     </row>
     <row r="92" spans="3:7" ht="15" thickBot="1">
-      <c r="C92" s="47"/>
+      <c r="C92" s="46"/>
       <c r="D92" s="4" t="s">
         <v>41</v>
       </c>
@@ -5505,7 +5810,7 @@
       </c>
     </row>
     <row r="93" spans="3:7" ht="15" thickBot="1">
-      <c r="C93" s="47"/>
+      <c r="C93" s="46"/>
       <c r="D93" s="19" t="s">
         <v>41</v>
       </c>
@@ -5520,7 +5825,7 @@
       </c>
     </row>
     <row r="94" spans="3:7" ht="15" thickBot="1">
-      <c r="C94" s="47"/>
+      <c r="C94" s="46"/>
       <c r="D94" s="19" t="s">
         <v>41</v>
       </c>
@@ -5535,7 +5840,7 @@
       </c>
     </row>
     <row r="95" spans="3:7" ht="15" thickBot="1">
-      <c r="C95" s="47"/>
+      <c r="C95" s="46"/>
       <c r="D95" s="4" t="s">
         <v>41</v>
       </c>
@@ -5550,7 +5855,7 @@
       </c>
     </row>
     <row r="96" spans="3:7" ht="15" thickBot="1">
-      <c r="C96" s="47"/>
+      <c r="C96" s="46"/>
       <c r="D96" s="4" t="s">
         <v>41</v>
       </c>
@@ -5565,7 +5870,7 @@
       </c>
     </row>
     <row r="97" spans="3:7" ht="15" thickBot="1">
-      <c r="C97" s="47"/>
+      <c r="C97" s="46"/>
       <c r="D97" s="4" t="s">
         <v>47</v>
       </c>
@@ -5580,16 +5885,16 @@
       </c>
     </row>
     <row r="98" spans="3:7" ht="15" thickBot="1">
-      <c r="C98" s="47"/>
-      <c r="D98" s="30" t="s">
+      <c r="C98" s="46"/>
+      <c r="D98" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="E98" s="49"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="50"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="49"/>
     </row>
     <row r="99" spans="3:7" ht="15" thickBot="1">
-      <c r="C99" s="47"/>
+      <c r="C99" s="46"/>
       <c r="D99" s="4" t="s">
         <v>48</v>
       </c>
@@ -5604,7 +5909,7 @@
       </c>
     </row>
     <row r="100" spans="3:7" ht="15" thickBot="1">
-      <c r="C100" s="47"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="4" t="s">
         <v>53</v>
       </c>
@@ -5619,7 +5924,7 @@
       </c>
     </row>
     <row r="101" spans="3:7" ht="51.75" thickBot="1">
-      <c r="C101" s="47"/>
+      <c r="C101" s="46"/>
       <c r="D101" s="4" t="s">
         <v>56</v>
       </c>
@@ -5634,7 +5939,7 @@
       </c>
     </row>
     <row r="102" spans="3:7" ht="15" thickBot="1">
-      <c r="C102" s="47"/>
+      <c r="C102" s="46"/>
       <c r="D102" s="4" t="s">
         <v>53</v>
       </c>
@@ -5649,7 +5954,7 @@
       </c>
     </row>
     <row r="103" spans="3:7" ht="15" thickBot="1">
-      <c r="C103" s="47"/>
+      <c r="C103" s="46"/>
       <c r="D103" s="4" t="s">
         <v>56</v>
       </c>
@@ -5664,7 +5969,7 @@
       </c>
     </row>
     <row r="104" spans="3:7" ht="15" thickBot="1">
-      <c r="C104" s="47"/>
+      <c r="C104" s="46"/>
       <c r="D104" s="4" t="s">
         <v>56</v>
       </c>
@@ -5679,7 +5984,7 @@
       </c>
     </row>
     <row r="105" spans="3:7" ht="15" thickBot="1">
-      <c r="C105" s="47"/>
+      <c r="C105" s="46"/>
       <c r="D105" s="4" t="s">
         <v>61</v>
       </c>
@@ -5694,7 +5999,7 @@
       </c>
     </row>
     <row r="106" spans="3:7" ht="15" thickBot="1">
-      <c r="C106" s="47"/>
+      <c r="C106" s="46"/>
       <c r="D106" s="4" t="s">
         <v>61</v>
       </c>
@@ -5709,7 +6014,7 @@
       </c>
     </row>
     <row r="107" spans="3:7" ht="15" thickBot="1">
-      <c r="C107" s="47"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="4" t="s">
         <v>61</v>
       </c>
@@ -5724,7 +6029,7 @@
       </c>
     </row>
     <row r="108" spans="3:7" ht="15" thickBot="1">
-      <c r="C108" s="48"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="4" t="s">
         <v>61</v>
       </c>
@@ -5740,6 +6045,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="D73:G73"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:G64"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:G67"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="D70:G70"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:G58"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:G61"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:G28"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C76:C108"/>
     <mergeCell ref="D85:G85"/>
@@ -5756,41 +6096,680 @@
     <mergeCell ref="D16:G16"/>
     <mergeCell ref="C19:C21"/>
     <mergeCell ref="D19:G19"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:G43"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:G34"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D49:G49"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="D52:G52"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="D55:G55"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:G58"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:G61"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="D73:G73"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="28">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28">
+        <v>1</v>
+      </c>
+      <c r="H4" s="28">
+        <v>1</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="53"/>
+      <c r="C5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="28">
+        <v>1</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6" s="53"/>
+      <c r="C6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="53"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="53"/>
+      <c r="C8" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>338</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="53"/>
+      <c r="C9" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>336</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="53"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="53"/>
+      <c r="C11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="28">
+        <v>1</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="53"/>
+      <c r="C12" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>310</v>
+      </c>
+      <c r="E12" s="28">
+        <v>2</v>
+      </c>
+      <c r="F12" s="28">
+        <v>2</v>
+      </c>
+      <c r="G12" s="28">
+        <v>2</v>
+      </c>
+      <c r="H12" s="28">
+        <v>2</v>
+      </c>
+      <c r="I12" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="53"/>
+      <c r="C13" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E13" s="28">
+        <v>3</v>
+      </c>
+      <c r="F13" s="28">
+        <v>3</v>
+      </c>
+      <c r="G13" s="28">
+        <v>3</v>
+      </c>
+      <c r="H13" s="28">
+        <v>3</v>
+      </c>
+      <c r="I13" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="B14" s="53"/>
+      <c r="C14" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1</v>
+      </c>
+      <c r="F14" s="28">
+        <v>1</v>
+      </c>
+      <c r="G14" s="28">
+        <v>1</v>
+      </c>
+      <c r="H14" s="28">
+        <v>1</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" s="53"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="53"/>
+      <c r="C16" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="I16" s="28" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="53"/>
+      <c r="C17" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="H17" s="28" t="s">
+        <v>326</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="53"/>
+      <c r="C18" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="53"/>
+      <c r="C19" s="27" t="s">
+        <v>298</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I19" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="53"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="53"/>
+      <c r="C21" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E21" s="28">
+        <v>3</v>
+      </c>
+      <c r="F21" s="28">
+        <v>3</v>
+      </c>
+      <c r="G21" s="28">
+        <v>3</v>
+      </c>
+      <c r="H21" s="28">
+        <v>3</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22" s="53"/>
+      <c r="C22" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>314</v>
+      </c>
+      <c r="E22" s="28">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28">
+        <v>1</v>
+      </c>
+      <c r="G22" s="28">
+        <v>1</v>
+      </c>
+      <c r="H22" s="28">
+        <v>1</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23" s="53"/>
+      <c r="C23" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E23" s="28">
+        <v>3</v>
+      </c>
+      <c r="F23" s="28">
+        <v>3</v>
+      </c>
+      <c r="G23" s="28">
+        <v>3</v>
+      </c>
+      <c r="H23" s="28">
+        <v>3</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="53"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="53"/>
+      <c r="C25" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H25" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="53"/>
+      <c r="C26" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I26" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="53"/>
+      <c r="C27" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="53"/>
+      <c r="C28" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>331</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H28" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I28" s="28" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="53"/>
+      <c r="C29" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="53"/>
+      <c r="C30" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30" s="28">
+        <v>10</v>
+      </c>
+      <c r="F30" s="28">
+        <v>3</v>
+      </c>
+      <c r="G30" s="28">
+        <v>10</v>
+      </c>
+      <c r="H30" s="28">
+        <v>3</v>
+      </c>
+      <c r="I30" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="53"/>
+      <c r="C31" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>300</v>
+      </c>
+      <c r="E31" s="28">
+        <v>10</v>
+      </c>
+      <c r="F31" s="28">
+        <v>3</v>
+      </c>
+      <c r="G31" s="28">
+        <v>10</v>
+      </c>
+      <c r="H31" s="28">
+        <v>3</v>
+      </c>
+      <c r="I31" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="53"/>
+      <c r="C32" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>333</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="H32" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="I32" s="28" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5. FF预研/过程文档/主从站下装数据.xlsx
+++ b/5. FF预研/过程文档/主从站下装数据.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7605" tabRatio="951" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15450" windowHeight="7605" tabRatio="951" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="主站下装数据-0228" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="从站下装数据-0302" sheetId="3" r:id="rId3"/>
     <sheet name="主站下装数据-0304" sheetId="4" r:id="rId4"/>
     <sheet name="主站VCR下装数据-0312" sheetId="5" r:id="rId5"/>
+    <sheet name="主站VCR下装数据结构-0313" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="390">
   <si>
     <t>数据结构</t>
   </si>
@@ -1453,10 +1454,6 @@
     <t>0x0A</t>
   </si>
   <si>
-    <t>0x0A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0x80</t>
   </si>
   <si>
@@ -1572,10 +1569,6 @@
   </si>
   <si>
     <t>未赋值，采用默认0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fas_ar_type_and_role 固定值：0xA2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1585,6 +1578,152 @@
   <si>
     <t>Changed_Params
 功能块参数信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S_OD_ENTRY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>od_index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    UINT8  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num_of_elms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    char   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rights</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    VCR_STATIC_ENTRY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        UINT8 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_ar_type_and_role</t>
+  </si>
+  <si>
+    <t>fas_dll_local_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        UINT32 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_configured_remote_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sdap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_max_cnf_delay_on_conn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_max_cnf_delay_on_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fms_feature_supp[FEAT_SUPP_LEN]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fms_max_rcc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fms_max_scc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fms_vfd_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sub_syn_dlcep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_sub_timewin_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_pub_syn_dlcep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_pub_timewin_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_timeliness_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_resid_act_supp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_dll_max_dlsdu_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        UINT16 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        UINT32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fas_ar_type_and_role 固定值：0xA2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2334,7 +2473,7 @@
   <dimension ref="C2:G39"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2908,7 +3047,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:G103"/>
   <sheetViews>
-    <sheetView topLeftCell="B55" workbookViewId="0">
+    <sheetView topLeftCell="B25" workbookViewId="0">
       <selection activeCell="C74" sqref="C74:G103"/>
     </sheetView>
   </sheetViews>
@@ -4583,7 +4722,7 @@
     </row>
     <row r="29" spans="3:7" ht="15" thickBot="1">
       <c r="C29" s="42" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>19</v>
@@ -4684,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B58" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C45"/>
+    <sheetView topLeftCell="B67" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6107,8 +6246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:I32"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6136,7 +6275,7 @@
         <v>305</v>
       </c>
       <c r="I3" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="2:9">
@@ -6162,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="2:9">
@@ -6186,7 +6325,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -6198,7 +6337,7 @@
         <v>308</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>320</v>
+        <v>389</v>
       </c>
       <c r="F6" s="28" t="s">
         <v>319</v>
@@ -6207,10 +6346,10 @@
         <v>319</v>
       </c>
       <c r="H6" s="28" t="s">
-        <v>319</v>
+        <v>388</v>
       </c>
       <c r="I6" s="28" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -6235,16 +6374,16 @@
         <v>316</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G8" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="H8" s="28" t="s">
         <v>338</v>
       </c>
-      <c r="H8" s="28" t="s">
-        <v>339</v>
-      </c>
       <c r="I8" s="28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -6259,16 +6398,16 @@
         <v>318</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G9" s="28" t="s">
         <v>317</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -6302,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="2:9">
@@ -6326,7 +6465,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -6350,7 +6489,7 @@
         <v>3</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="2:9">
@@ -6374,7 +6513,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="2:9">
@@ -6396,19 +6535,19 @@
         <v>296</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F16" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="G16" s="28" t="s">
-        <v>324</v>
-      </c>
       <c r="H16" s="28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="2:9">
@@ -6417,22 +6556,22 @@
         <v>295</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F17" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="G17" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="28" t="s">
-        <v>326</v>
-      </c>
       <c r="H17" s="28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -6444,19 +6583,19 @@
         <v>297</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G18" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="H18" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>322</v>
-      </c>
       <c r="I18" s="28" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="2:9">
@@ -6465,22 +6604,22 @@
         <v>298</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H19" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="2:9">
@@ -6514,7 +6653,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="2:9">
@@ -6538,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -6562,7 +6701,7 @@
         <v>3</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -6581,22 +6720,22 @@
         <v>295</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H25" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -6605,22 +6744,22 @@
         <v>4</v>
       </c>
       <c r="D26" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H26" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -6629,22 +6768,22 @@
         <v>295</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H27" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="2:9">
@@ -6653,22 +6792,22 @@
         <v>4</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H28" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -6677,22 +6816,22 @@
         <v>4</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H29" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="2:9">
@@ -6716,7 +6855,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="2:9">
@@ -6740,7 +6879,7 @@
         <v>3</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="2:9">
@@ -6749,22 +6888,22 @@
         <v>11</v>
       </c>
       <c r="D32" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>334</v>
-      </c>
       <c r="F32" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H32" s="28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -6775,4 +6914,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.875" customWidth="1"/>
+    <col min="5" max="5" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="43.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3">
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>366</v>
+      </c>
+      <c r="C20" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" t="s">
+        <v>386</v>
+      </c>
+      <c r="C23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
+        <v>385</v>
+      </c>
+      <c r="C24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" t="s">
+        <v>369</v>
+      </c>
+      <c r="C25" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C26" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>366</v>
+      </c>
+      <c r="C28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" t="s">
+        <v>366</v>
+      </c>
+      <c r="C29" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>